--- a/biology/Médecine/Agent_de_stérilisation/Agent_de_stérilisation.xlsx
+++ b/biology/Médecine/Agent_de_stérilisation/Agent_de_stérilisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agent_de_st%C3%A9rilisation</t>
+          <t>Agent_de_stérilisation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un agent de stérilisation est un salarié chargé de la décontamination, du lavage,du séchage,de la vérification, de la recomposition et de la stérilisation d'équipements médicaux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agent_de_st%C3%A9rilisation</t>
+          <t>Agent_de_stérilisation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Profession</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agent de stérilisation fait partie du domaine médical.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agent_de_st%C3%A9rilisation</t>
+          <t>Agent_de_stérilisation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Diplôme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un métier reconnu relevant du ministère chargé de la Santé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un métier reconnu relevant du ministère chargé de la Santé.
 Quelques formations peuvent mener à cette profession :
-Baccalauréat professionnel (Bac pro) Hygiène, propreté, stérilisation (HPS)[2]
+Baccalauréat professionnel (Bac pro) Hygiène, propreté, stérilisation (HPS)
 CAP (agent de propreté et d'hygiène)
 CAP (assistant technique en milieu familial et technique)
 Le bac professionnel se prépare en 3 ans après la 3e.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agent_de_st%C3%A9rilisation</t>
+          <t>Agent_de_stérilisation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le rôle du professionnel est :  
 nettoyage des locaux
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agent_de_st%C3%A9rilisation</t>
+          <t>Agent_de_stérilisation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Structures, salaire, heures de travail</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lieux de travail d'un agent de stérilisation sont en hôpital, clinique et résidence de personnes âgées
 Le salaire moyen brut[Quand ?] : 1660 euro et 2300 euro en fin de carrière
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agent_de_st%C3%A9rilisation</t>
+          <t>Agent_de_stérilisation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Évolution possible</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agent de stérilisation a pour possibilité de devenir chef d'équipe au service stérilisation, cadre du service stérilisation (passage par école des cadres), ou aide-soignant grâce à l'obtention du diplôme DEAS (diplôme d'État d'aide-soignant).
 </t>
